--- a/UDACITY_Projects/Invoice Scraping Project/data_folder/MonicaGeller87654.xlsx
+++ b/UDACITY_Projects/Invoice Scraping Project/data_folder/MonicaGeller87654.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FLI028\Desktop\RPA_projects\UDACITY_Projects\Invoice Scraping Project\data_folder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FLI028\Desktop\RPA_Udacity_projects\UDACITY_Projects\Invoice Scraping Project\data_folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83862E7D-2D84-4024-8F99-F58DD621AB83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F682720-2D0B-4400-98F7-EF595AECF43D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1330" yWindow="750" windowWidth="14400" windowHeight="7820" xr2:uid="{54509626-6365-4CF0-88C5-438110706A72}"/>
+    <workbookView xWindow="1330" yWindow="750" windowWidth="14400" windowHeight="7820" xr2:uid="{25A61A00-4802-46ED-94D5-1762FA7B684D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -393,7 +393,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF3DC08B-9BA8-4B31-BDFD-5C80D026B2A7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8ED1A29-D770-40C7-BE58-2FD4061BDD39}">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/UDACITY_Projects/Invoice Scraping Project/data_folder/MonicaGeller87654.xlsx
+++ b/UDACITY_Projects/Invoice Scraping Project/data_folder/MonicaGeller87654.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FLI028\Desktop\RPA_Udacity_projects\UDACITY_Projects\Invoice Scraping Project\data_folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F682720-2D0B-4400-98F7-EF595AECF43D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{712009DC-1A26-4AFC-B147-E8F86F6121BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1330" yWindow="750" windowWidth="14400" windowHeight="7820" xr2:uid="{25A61A00-4802-46ED-94D5-1762FA7B684D}"/>
+    <workbookView xWindow="1330" yWindow="750" windowWidth="14400" windowHeight="7820" xr2:uid="{958112C2-3FD5-4F51-937E-F56BB827ABBF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="29">
   <si>
     <t>InvoiceNo</t>
   </si>
@@ -43,6 +43,86 @@
   </si>
   <si>
     <t xml:space="preserve"> May 09, 2020</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>DESCRIPTION</t>
+  </si>
+  <si>
+    <t>QTY</t>
+  </si>
+  <si>
+    <t>PRICE</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4Tech keyboard black </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A4Tech HS-800 headphone </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asus Memo Pad Tablet </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HP Desktop C2500 Keyboard+Mouse </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Logitech B170 Wireless Mouse (Black) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Benq G2020HDA Screen. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Logitech B525 Commercial HD Webcam </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sub Total </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GST 8% </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zebronics Crystal Pro Web Camera (red) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TP-Link UH400 4-Port USB Hub (Black) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Red Gear Dragonwar Emera ELE-G11 3200 DPI _x000D_
+Gaming Mouse (Dark Blue) _x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Video Graphics Adapters </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Techair Hard case - Flip cover for tablet - PET - Black </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HP Docking Station </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONNEkT GEAR - Patch cable </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PORT Torino - Notebook sleeve - 15.6" - black </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HP - Disk drive - DVD-RW - USB - external </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Speakers - Logitech </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HP 4 GB for Desktop Mini PC </t>
   </si>
 </sst>
 </file>
@@ -78,8 +158,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -393,27 +476,530 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8ED1A29-D770-40C7-BE58-2FD4061BDD39}">
-  <dimension ref="A1:B2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BD2218B-D268-469E-9B0A-3807CE0097A7}">
+  <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>87654</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>600</v>
+      </c>
+      <c r="G2">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>900</v>
+      </c>
+      <c r="G3">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>7800</v>
+      </c>
+      <c r="G4">
+        <v>7800</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1500</v>
+      </c>
+      <c r="G5">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>600</v>
+      </c>
+      <c r="G6">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>1500</v>
+      </c>
+      <c r="G7">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C8">
+        <v>7</v>
+      </c>
+      <c r="D8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>2000</v>
+      </c>
+      <c r="G8">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9">
+        <v>17000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11">
+        <v>18360</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>600</v>
+      </c>
+      <c r="G12">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>900</v>
+      </c>
+      <c r="G13">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C14">
+        <v>3</v>
+      </c>
+      <c r="D14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>7800</v>
+      </c>
+      <c r="G14">
+        <v>7800</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C15">
+        <v>4</v>
+      </c>
+      <c r="D15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>1500</v>
+      </c>
+      <c r="G15">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C16">
+        <v>5</v>
+      </c>
+      <c r="D16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>600</v>
+      </c>
+      <c r="G16">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="17" spans="3:7" ht="145" x14ac:dyDescent="0.35">
+      <c r="C17">
+        <v>6</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>1500</v>
+      </c>
+      <c r="G17">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="18" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C18">
+        <v>7</v>
+      </c>
+      <c r="D18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>2000</v>
+      </c>
+      <c r="G18">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="19" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C19">
+        <v>8</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>2700</v>
+      </c>
+      <c r="G19">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="20" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C20">
+        <v>9</v>
+      </c>
+      <c r="D20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>2000</v>
+      </c>
+      <c r="G20">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="21" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C21">
+        <v>10</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>800</v>
+      </c>
+      <c r="G21">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="22" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C22">
+        <v>11</v>
+      </c>
+      <c r="D22" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>100</v>
+      </c>
+      <c r="G22">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C23">
+        <v>12</v>
+      </c>
+      <c r="D23" t="s">
+        <v>25</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>2100</v>
+      </c>
+      <c r="G23">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C24">
+        <v>13</v>
+      </c>
+      <c r="D24" t="s">
+        <v>26</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>1000</v>
+      </c>
+      <c r="G24">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="25" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C25">
+        <v>14</v>
+      </c>
+      <c r="D25" t="s">
+        <v>27</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>300</v>
+      </c>
+      <c r="G25">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="26" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C26">
+        <v>15</v>
+      </c>
+      <c r="D26" t="s">
+        <v>28</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>2000</v>
+      </c>
+      <c r="G26">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="27" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>600</v>
+      </c>
+      <c r="G27">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="28" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C28">
+        <v>2</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>2000</v>
+      </c>
+      <c r="G28">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="29" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C29">
+        <v>3</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>800</v>
+      </c>
+      <c r="G29">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="30" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C30">
+        <v>4</v>
+      </c>
+      <c r="D30" t="s">
+        <v>27</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>300</v>
+      </c>
+      <c r="G30">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="31" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="F31" t="s">
+        <v>15</v>
+      </c>
+      <c r="G31">
+        <v>4300</v>
+      </c>
+    </row>
+    <row r="32" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="F32" t="s">
+        <v>16</v>
+      </c>
+      <c r="G32">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="33" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F33" t="s">
+        <v>17</v>
+      </c>
+      <c r="G33">
+        <v>4644</v>
       </c>
     </row>
   </sheetData>

--- a/UDACITY_Projects/Invoice Scraping Project/data_folder/MonicaGeller87654.xlsx
+++ b/UDACITY_Projects/Invoice Scraping Project/data_folder/MonicaGeller87654.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FLI028\Desktop\RPA_Udacity_projects\UDACITY_Projects\Invoice Scraping Project\data_folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{712009DC-1A26-4AFC-B147-E8F86F6121BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCFB29E1-B9F2-4669-B036-AF43C2CB073F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1330" yWindow="750" windowWidth="14400" windowHeight="7820" xr2:uid="{958112C2-3FD5-4F51-937E-F56BB827ABBF}"/>
+    <workbookView xWindow="1330" yWindow="750" windowWidth="14400" windowHeight="7820" xr2:uid="{3C8023E8-FE8A-4D6D-B288-8B206782BC52}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="31">
   <si>
     <t>InvoiceNo</t>
   </si>
@@ -45,19 +45,25 @@
     <t xml:space="preserve"> May 09, 2020</t>
   </si>
   <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>DESCRIPTION</t>
-  </si>
-  <si>
-    <t>QTY</t>
-  </si>
-  <si>
-    <t>PRICE</t>
-  </si>
-  <si>
-    <t>TOTAL</t>
+    <t>ItemNo</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>SubTotal</t>
+  </si>
+  <si>
+    <t>GST</t>
   </si>
   <si>
     <t xml:space="preserve">4Tech keyboard black </t>
@@ -476,529 +482,545 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BD2218B-D268-469E-9B0A-3807CE0097A7}">
-  <dimension ref="A1:G33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19877CBC-FABB-4E44-BC5D-F988F3A3FB74}">
+  <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>87654</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" t="s">
         <v>8</v>
       </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>600</v>
-      </c>
-      <c r="G2">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="H5" t="s">
         <v>9</v>
       </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>900</v>
-      </c>
-      <c r="G3">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="C4">
-        <v>3</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="I5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
         <v>10</v>
       </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>7800</v>
-      </c>
-      <c r="G4">
-        <v>7800</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="C5">
-        <v>4</v>
-      </c>
-      <c r="D5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1500</v>
-      </c>
-      <c r="G5">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="C6">
-        <v>5</v>
-      </c>
-      <c r="D6" t="s">
-        <v>12</v>
-      </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
         <v>600</v>
       </c>
       <c r="G6">
+        <v>600</v>
+      </c>
+      <c r="H6">
+        <v>344</v>
+      </c>
+      <c r="I6">
+        <v>4644</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>900</v>
+      </c>
+      <c r="G7">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>7800</v>
+      </c>
+      <c r="G8">
+        <v>7800</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1500</v>
+      </c>
+      <c r="G9">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="C10">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>600</v>
+      </c>
+      <c r="G10">
         <v>1200</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="C7">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="C11">
         <v>6</v>
       </c>
-      <c r="D7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7">
+      <c r="D11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11">
         <v>2</v>
       </c>
-      <c r="F7">
+      <c r="F11">
         <v>1500</v>
       </c>
-      <c r="G7">
+      <c r="G11">
         <v>3000</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="C8">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="C12">
         <v>7</v>
       </c>
-      <c r="D8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
+      <c r="D12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
         <v>2000</v>
       </c>
-      <c r="G8">
+      <c r="G12">
         <v>2000</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="F9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="F13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13">
         <v>17000</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="F10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G10">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="F14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14">
         <v>1360</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="F11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G11">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="F15" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15">
         <v>18360</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>600</v>
-      </c>
-      <c r="G12">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="C13">
-        <v>2</v>
-      </c>
-      <c r="D13" t="s">
-        <v>19</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>900</v>
-      </c>
-      <c r="G13">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="C14">
-        <v>3</v>
-      </c>
-      <c r="D14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>7800</v>
-      </c>
-      <c r="G14">
-        <v>7800</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="C15">
-        <v>4</v>
-      </c>
-      <c r="D15" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <v>1500</v>
-      </c>
-      <c r="G15">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="C16">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16">
         <v>600</v>
       </c>
       <c r="G16">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="17" spans="3:7" ht="145" x14ac:dyDescent="0.35">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="17" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C17">
-        <v>6</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>20</v>
+        <v>2</v>
+      </c>
+      <c r="D17" t="s">
+        <v>21</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>1500</v>
+        <v>900</v>
       </c>
       <c r="G17">
-        <v>3000</v>
+        <v>900</v>
       </c>
     </row>
     <row r="18" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C18">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D18" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E18">
         <v>1</v>
       </c>
       <c r="F18">
-        <v>2000</v>
+        <v>7800</v>
       </c>
       <c r="G18">
-        <v>2000</v>
+        <v>7800</v>
       </c>
     </row>
     <row r="19" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C19">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E19">
         <v>1</v>
       </c>
       <c r="F19">
-        <v>2700</v>
+        <v>1500</v>
       </c>
       <c r="G19">
-        <v>2700</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="20" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C20">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D20" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>600</v>
+      </c>
+      <c r="G20">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="21" spans="3:7" ht="145" x14ac:dyDescent="0.35">
+      <c r="C21">
+        <v>6</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-      <c r="F20">
-        <v>2000</v>
-      </c>
-      <c r="G20">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="21" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C21">
-        <v>10</v>
-      </c>
-      <c r="D21" t="s">
-        <v>23</v>
-      </c>
       <c r="E21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="G21">
-        <v>800</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="22" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C22">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D22" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E22">
         <v>1</v>
       </c>
       <c r="F22">
-        <v>100</v>
+        <v>2000</v>
       </c>
       <c r="G22">
-        <v>100</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="23" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C23">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D23" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E23">
         <v>1</v>
       </c>
       <c r="F23">
-        <v>2100</v>
+        <v>2700</v>
       </c>
       <c r="G23">
-        <v>2100</v>
+        <v>2700</v>
       </c>
     </row>
     <row r="24" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C24">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E24">
         <v>1</v>
       </c>
       <c r="F24">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="G24">
-        <v>1000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="25" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C25">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E25">
         <v>1</v>
       </c>
       <c r="F25">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="G25">
-        <v>300</v>
+        <v>800</v>
       </c>
     </row>
     <row r="26" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C26">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D26" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E26">
         <v>1</v>
       </c>
       <c r="F26">
-        <v>2000</v>
+        <v>100</v>
       </c>
       <c r="G26">
-        <v>2000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C27">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D27" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="E27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F27">
-        <v>600</v>
+        <v>2100</v>
       </c>
       <c r="G27">
-        <v>1200</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="28" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C28">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="D28" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E28">
         <v>1</v>
       </c>
       <c r="F28">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="G28">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="29" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C29">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D29" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="E29">
         <v>1</v>
       </c>
       <c r="F29">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="G29">
-        <v>800</v>
+        <v>300</v>
       </c>
     </row>
     <row r="30" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C30">
+        <v>15</v>
+      </c>
+      <c r="D30" t="s">
+        <v>30</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>2000</v>
+      </c>
+      <c r="G30">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="31" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31" t="s">
+        <v>14</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>600</v>
+      </c>
+      <c r="G31">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="32" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C32">
+        <v>2</v>
+      </c>
+      <c r="D32" t="s">
+        <v>24</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>2000</v>
+      </c>
+      <c r="G32">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="33" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C33">
+        <v>3</v>
+      </c>
+      <c r="D33" t="s">
+        <v>25</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>800</v>
+      </c>
+      <c r="G33">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="34" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C34">
         <v>4</v>
       </c>
-      <c r="D30" t="s">
-        <v>27</v>
-      </c>
-      <c r="E30">
-        <v>1</v>
-      </c>
-      <c r="F30">
+      <c r="D34" t="s">
+        <v>29</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
         <v>300</v>
       </c>
-      <c r="G30">
+      <c r="G34">
         <v>300</v>
       </c>
     </row>
-    <row r="31" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="F31" t="s">
-        <v>15</v>
-      </c>
-      <c r="G31">
+    <row r="35" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="F35" t="s">
+        <v>17</v>
+      </c>
+      <c r="G35">
         <v>4300</v>
       </c>
     </row>
-    <row r="32" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="F32" t="s">
-        <v>16</v>
-      </c>
-      <c r="G32">
+    <row r="36" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="F36" t="s">
+        <v>18</v>
+      </c>
+      <c r="G36">
         <v>344</v>
       </c>
     </row>
-    <row r="33" spans="6:7" x14ac:dyDescent="0.35">
-      <c r="F33" t="s">
-        <v>17</v>
-      </c>
-      <c r="G33">
+    <row r="37" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="F37" t="s">
+        <v>19</v>
+      </c>
+      <c r="G37">
         <v>4644</v>
       </c>
     </row>

--- a/UDACITY_Projects/Invoice Scraping Project/data_folder/MonicaGeller87654.xlsx
+++ b/UDACITY_Projects/Invoice Scraping Project/data_folder/MonicaGeller87654.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FLI028\Desktop\RPA_Udacity_projects\UDACITY_Projects\Invoice Scraping Project\data_folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCFB29E1-B9F2-4669-B036-AF43C2CB073F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CEA44BE-7C65-4DD7-9546-806A72ADF4D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1330" yWindow="750" windowWidth="14400" windowHeight="7820" xr2:uid="{3C8023E8-FE8A-4D6D-B288-8B206782BC52}"/>
+    <workbookView xWindow="1330" yWindow="750" windowWidth="14400" windowHeight="7820" xr2:uid="{82BC5AE2-DCCF-4071-AD3E-54BC8369A184}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="29">
   <si>
     <t>InvoiceNo</t>
   </si>
@@ -58,12 +58,6 @@
   </si>
   <si>
     <t>Total</t>
-  </si>
-  <si>
-    <t>SubTotal</t>
-  </si>
-  <si>
-    <t>GST</t>
   </si>
   <si>
     <t xml:space="preserve">4Tech keyboard black </t>
@@ -482,14 +476,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19877CBC-FABB-4E44-BC5D-F988F3A3FB74}">
-  <dimension ref="A1:I37"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26F2BB8A-7684-4218-B7C8-029FF4A79D84}">
+  <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -497,7 +491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>87654</v>
       </c>
@@ -505,7 +499,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C5" t="s">
         <v>3</v>
       </c>
@@ -519,21 +513,15 @@
         <v>6</v>
       </c>
       <c r="G5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
         <v>8</v>
-      </c>
-      <c r="H5" t="s">
-        <v>9</v>
-      </c>
-      <c r="I5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s">
-        <v>10</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -544,19 +532,13 @@
       <c r="G6">
         <v>600</v>
       </c>
-      <c r="H6">
-        <v>344</v>
-      </c>
-      <c r="I6">
-        <v>4644</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C7">
         <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -568,12 +550,12 @@
         <v>900</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C8">
         <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -585,12 +567,12 @@
         <v>7800</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C9">
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -602,12 +584,12 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C10">
         <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -619,12 +601,12 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C11">
         <v>6</v>
       </c>
       <c r="D11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -636,12 +618,12 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C12">
         <v>7</v>
       </c>
       <c r="D12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -653,36 +635,36 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="F13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G13">
         <v>17000</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="F14" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G14">
         <v>1360</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="F15" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G15">
         <v>18360</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C16">
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -699,7 +681,7 @@
         <v>2</v>
       </c>
       <c r="D17" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -716,7 +698,7 @@
         <v>3</v>
       </c>
       <c r="D18" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -733,7 +715,7 @@
         <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -750,7 +732,7 @@
         <v>5</v>
       </c>
       <c r="D20" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E20">
         <v>2</v>
@@ -767,7 +749,7 @@
         <v>6</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E21">
         <v>2</v>
@@ -784,7 +766,7 @@
         <v>7</v>
       </c>
       <c r="D22" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -801,7 +783,7 @@
         <v>8</v>
       </c>
       <c r="D23" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -818,7 +800,7 @@
         <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -835,7 +817,7 @@
         <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -852,7 +834,7 @@
         <v>11</v>
       </c>
       <c r="D26" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -869,7 +851,7 @@
         <v>12</v>
       </c>
       <c r="D27" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E27">
         <v>1</v>
@@ -886,7 +868,7 @@
         <v>13</v>
       </c>
       <c r="D28" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -903,7 +885,7 @@
         <v>14</v>
       </c>
       <c r="D29" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E29">
         <v>1</v>
@@ -920,7 +902,7 @@
         <v>15</v>
       </c>
       <c r="D30" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E30">
         <v>1</v>
@@ -937,7 +919,7 @@
         <v>1</v>
       </c>
       <c r="D31" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E31">
         <v>2</v>
@@ -954,7 +936,7 @@
         <v>2</v>
       </c>
       <c r="D32" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E32">
         <v>1</v>
@@ -971,7 +953,7 @@
         <v>3</v>
       </c>
       <c r="D33" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E33">
         <v>1</v>
@@ -988,7 +970,7 @@
         <v>4</v>
       </c>
       <c r="D34" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E34">
         <v>1</v>
@@ -1002,7 +984,7 @@
     </row>
     <row r="35" spans="3:7" x14ac:dyDescent="0.35">
       <c r="F35" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G35">
         <v>4300</v>
@@ -1010,7 +992,7 @@
     </row>
     <row r="36" spans="3:7" x14ac:dyDescent="0.35">
       <c r="F36" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G36">
         <v>344</v>
@@ -1018,7 +1000,7 @@
     </row>
     <row r="37" spans="3:7" x14ac:dyDescent="0.35">
       <c r="F37" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G37">
         <v>4644</v>

--- a/UDACITY_Projects/Invoice Scraping Project/data_folder/MonicaGeller87654.xlsx
+++ b/UDACITY_Projects/Invoice Scraping Project/data_folder/MonicaGeller87654.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <x:si>
     <x:t>InvoiceNo</x:t>
   </x:si>
@@ -55,12 +55,6 @@
     <x:t xml:space="preserve">600.00 </x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve">Invoice # 130792 
-Invoice Date: Sep 01, 2020 
-Due Date: Sep 15, 2020 
-</x:t>
-  </x:si>
-  <x:si>
     <x:t xml:space="preserve">02 </x:t>
   </x:si>
   <x:si>
@@ -116,12 +110,6 @@
   </x:si>
   <x:si>
     <x:t xml:space="preserve">2000.00 </x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Invoice # 87654 
-Invoice Date: May 09, 2020 
-Due Date: May 15, 2020 
-</x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve">Sub Total </x:t>
@@ -217,59 +205,6 @@
   </x:si>
   <x:si>
     <x:t xml:space="preserve">HP 4 GB for Desktop Mini PC </x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">4300.00 </x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">344.00 </x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">4644.00 </x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Invoice # 130792 
-Invoice Date: Sep 01, 2020 
-Due Date: Sep 15, 2020 
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">16 </x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">HP Laserjet Multifunction Printer B/W (2nd Tray 
-Optional) 
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">3 </x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">6000.00 </x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">17 </x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">PORT Torino - Notebook sleeve - 14" - black </x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">1900.00 </x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">35900.00 </x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">2872.00 </x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">38772.00 </x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Invoice # 87654 
-Invoice Date: May 09, 2020 
-Due Date: May 15, 2020 
-</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -315,13 +250,7 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="4">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
+  <x:cellStyleXfs count="2">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -639,7 +568,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
-    <x:row r="1" spans="1:8">
+    <x:row r="1" spans="1:7">
       <x:c r="A1" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
@@ -662,7 +591,7 @@
         <x:v>6</x:v>
       </x:c>
     </x:row>
-    <x:row r="2" spans="1:8">
+    <x:row r="2" spans="1:7">
       <x:c r="A2" s="0" t="s">
         <x:v>7</x:v>
       </x:c>
@@ -685,144 +614,138 @@
         <x:v>12</x:v>
       </x:c>
     </x:row>
-    <x:row r="3" spans="1:8">
-      <x:c r="B3" s="1" t="s">
+    <x:row r="3" spans="1:7">
+      <x:c r="C3" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
-      <x:c r="C3" s="0" t="s">
+      <x:c r="D3" s="0" t="s">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="D3" s="0" t="s">
+      <x:c r="E3" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F3" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
-      <x:c r="E3" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="F3" s="0" t="s">
+      <x:c r="G3" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:7">
+      <x:c r="C4" s="0" t="s">
         <x:v>16</x:v>
       </x:c>
-      <x:c r="G3" s="0" t="s">
-        <x:v>16</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="1:8">
-      <x:c r="C4" s="0" t="s">
+      <x:c r="D4" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
-      <x:c r="D4" s="1" t="s">
+      <x:c r="E4" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F4" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="E4" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="F4" s="0" t="s">
+      <x:c r="G4" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:7">
+      <x:c r="C5" s="0" t="s">
         <x:v>19</x:v>
       </x:c>
-      <x:c r="G4" s="0" t="s">
-        <x:v>19</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:8">
-      <x:c r="C5" s="0" t="s">
+      <x:c r="D5" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="D5" s="0" t="s">
+      <x:c r="E5" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F5" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="E5" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="F5" s="0" t="s">
+      <x:c r="G5" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:7">
+      <x:c r="C6" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
-      <x:c r="G5" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="6" spans="1:8">
-      <x:c r="C6" s="0" t="s">
+      <x:c r="D6" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
-      <x:c r="D6" s="0" t="s">
+      <x:c r="E6" s="0" t="s">
         <x:v>24</x:v>
-      </x:c>
-      <x:c r="E6" s="0" t="s">
-        <x:v>25</x:v>
       </x:c>
       <x:c r="F6" s="0" t="s">
         <x:v>12</x:v>
       </x:c>
       <x:c r="G6" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:7">
+      <x:c r="C7" s="0" t="s">
         <x:v>26</x:v>
       </x:c>
-    </x:row>
-    <x:row r="7" spans="1:8">
-      <x:c r="C7" s="0" t="s">
+      <x:c r="D7" s="0" t="s">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="D7" s="0" t="s">
+      <x:c r="E7" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="F7" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="G7" s="0" t="s">
         <x:v>28</x:v>
       </x:c>
-      <x:c r="E7" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="F7" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="G7" s="0" t="s">
+    </x:row>
+    <x:row r="8" spans="1:7">
+      <x:c r="C8" s="0" t="s">
         <x:v>29</x:v>
       </x:c>
-    </x:row>
-    <x:row r="8" spans="1:8">
-      <x:c r="C8" s="0" t="s">
+      <x:c r="D8" s="0" t="s">
         <x:v>30</x:v>
       </x:c>
-      <x:c r="D8" s="0" t="s">
-        <x:v>31</x:v>
-      </x:c>
       <x:c r="E8" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="F8" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="G8" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:7">
+      <x:c r="F9" s="0" t="s">
         <x:v>32</x:v>
       </x:c>
-      <x:c r="G8" s="0" t="s">
-        <x:v>32</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="9" spans="1:8">
-      <x:c r="B9" s="1" t="s">
+      <x:c r="G9" s="0" t="s">
         <x:v>33</x:v>
       </x:c>
-      <x:c r="F9" s="0" t="s">
+    </x:row>
+    <x:row r="10" spans="1:7">
+      <x:c r="F10" s="0" t="s">
         <x:v>34</x:v>
       </x:c>
-      <x:c r="G9" s="0" t="s">
+      <x:c r="G10" s="0" t="s">
         <x:v>35</x:v>
       </x:c>
     </x:row>
-    <x:row r="10" spans="1:8">
-      <x:c r="F10" s="0" t="s">
+    <x:row r="11" spans="1:7">
+      <x:c r="F11" s="0" t="s">
         <x:v>36</x:v>
       </x:c>
-      <x:c r="G10" s="0" t="s">
+      <x:c r="G11" s="0" t="s">
         <x:v>37</x:v>
       </x:c>
     </x:row>
-    <x:row r="11" spans="1:8">
-      <x:c r="F11" s="0" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="G11" s="0" t="s">
-        <x:v>39</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="12" spans="1:8">
+    <x:row r="12" spans="1:7">
       <x:c r="C12" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="D12" s="0" t="s">
-        <x:v>40</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="E12" s="0" t="s">
         <x:v>11</x:v>
@@ -834,402 +757,497 @@
         <x:v>12</x:v>
       </x:c>
     </x:row>
-    <x:row r="13" spans="1:8">
+    <x:row r="13" spans="1:7">
       <x:c r="C13" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D13" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="E13" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="F13" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G13" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:7">
+      <x:c r="C14" s="0" t="s">
         <x:v>16</x:v>
       </x:c>
-      <x:c r="G13" s="0" t="s">
-        <x:v>16</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="14" spans="1:8">
-      <x:c r="C14" s="0" t="s">
+      <x:c r="D14" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
-      <x:c r="D14" s="0" t="s">
+      <x:c r="E14" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F14" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="E14" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="F14" s="0" t="s">
+      <x:c r="G14" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:7">
+      <x:c r="C15" s="0" t="s">
         <x:v>19</x:v>
       </x:c>
-      <x:c r="G14" s="0" t="s">
-        <x:v>19</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="15" spans="1:8">
-      <x:c r="C15" s="0" t="s">
+      <x:c r="D15" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="D15" s="0" t="s">
+      <x:c r="E15" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F15" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="E15" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="F15" s="0" t="s">
+      <x:c r="G15" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:7">
+      <x:c r="C16" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
-      <x:c r="G15" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="16" spans="1:8">
-      <x:c r="C16" s="0" t="s">
+      <x:c r="D16" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
-      <x:c r="D16" s="0" t="s">
+      <x:c r="E16" s="0" t="s">
         <x:v>24</x:v>
-      </x:c>
-      <x:c r="E16" s="0" t="s">
-        <x:v>25</x:v>
       </x:c>
       <x:c r="F16" s="0" t="s">
         <x:v>12</x:v>
       </x:c>
       <x:c r="G16" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:7">
+      <x:c r="C17" s="0" t="s">
         <x:v>26</x:v>
       </x:c>
-    </x:row>
-    <x:row r="17" spans="1:8">
-      <x:c r="C17" s="0" t="s">
-        <x:v>27</x:v>
-      </x:c>
       <x:c r="D17" s="1" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="E17" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="F17" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="G17" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:7">
+      <x:c r="C18" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="D18" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="E18" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F18" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="G18" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:7">
+      <x:c r="C19" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="D19" s="0" t="s">
         <x:v>42</x:v>
       </x:c>
-      <x:c r="E17" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="F17" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="G17" s="0" t="s">
-        <x:v>29</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="18" spans="1:8">
-      <x:c r="C18" s="0" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="D18" s="0" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="E18" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="F18" s="0" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="G18" s="0" t="s">
-        <x:v>32</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="19" spans="1:8">
-      <x:c r="C19" s="0" t="s">
+      <x:c r="E19" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F19" s="0" t="s">
         <x:v>43</x:v>
       </x:c>
-      <x:c r="D19" s="0" t="s">
+      <x:c r="G19" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:7">
+      <x:c r="C20" s="0" t="s">
         <x:v>44</x:v>
       </x:c>
-      <x:c r="E19" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="F19" s="0" t="s">
+      <x:c r="D20" s="0" t="s">
         <x:v>45</x:v>
       </x:c>
-      <x:c r="G19" s="0" t="s">
-        <x:v>45</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="20" spans="1:8">
-      <x:c r="C20" s="0" t="s">
+      <x:c r="E20" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F20" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="G20" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:7">
+      <x:c r="C21" s="0" t="s">
         <x:v>46</x:v>
       </x:c>
-      <x:c r="D20" s="0" t="s">
+      <x:c r="D21" s="0" t="s">
         <x:v>47</x:v>
       </x:c>
-      <x:c r="E20" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="F20" s="0" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="G20" s="0" t="s">
-        <x:v>32</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="21" spans="1:8">
-      <x:c r="C21" s="0" t="s">
+      <x:c r="E21" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F21" s="0" t="s">
         <x:v>48</x:v>
       </x:c>
-      <x:c r="D21" s="0" t="s">
+      <x:c r="G21" s="0" t="s">
+        <x:v>48</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22" spans="1:7">
+      <x:c r="C22" s="0" t="s">
         <x:v>49</x:v>
       </x:c>
-      <x:c r="E21" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="F21" s="0" t="s">
+      <x:c r="D22" s="0" t="s">
         <x:v>50</x:v>
       </x:c>
-      <x:c r="G21" s="0" t="s">
-        <x:v>50</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="22" spans="1:8">
-      <x:c r="C22" s="0" t="s">
+      <x:c r="E22" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F22" s="0" t="s">
         <x:v>51</x:v>
       </x:c>
-      <x:c r="D22" s="0" t="s">
+      <x:c r="G22" s="0" t="s">
+        <x:v>51</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23" spans="1:7">
+      <x:c r="C23" s="0" t="s">
         <x:v>52</x:v>
       </x:c>
-      <x:c r="E22" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="F22" s="0" t="s">
+      <x:c r="D23" s="0" t="s">
         <x:v>53</x:v>
       </x:c>
-      <x:c r="G22" s="0" t="s">
-        <x:v>53</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="23" spans="1:8">
-      <x:c r="C23" s="0" t="s">
+      <x:c r="E23" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F23" s="0" t="s">
         <x:v>54</x:v>
       </x:c>
-      <x:c r="D23" s="0" t="s">
+      <x:c r="G23" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24" spans="1:7">
+      <x:c r="C24" s="0" t="s">
         <x:v>55</x:v>
       </x:c>
-      <x:c r="E23" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="F23" s="0" t="s">
+      <x:c r="D24" s="0" t="s">
         <x:v>56</x:v>
       </x:c>
-      <x:c r="G23" s="0" t="s">
-        <x:v>56</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="24" spans="1:8">
-      <x:c r="C24" s="0" t="s">
+      <x:c r="E24" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F24" s="0" t="s">
         <x:v>57</x:v>
       </x:c>
-      <x:c r="D24" s="0" t="s">
+      <x:c r="G24" s="0" t="s">
+        <x:v>57</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="25" spans="1:7">
+      <x:c r="C25" s="0" t="s">
         <x:v>58</x:v>
       </x:c>
-      <x:c r="E24" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="F24" s="0" t="s">
+      <x:c r="D25" s="0" t="s">
         <x:v>59</x:v>
       </x:c>
-      <x:c r="G24" s="0" t="s">
-        <x:v>59</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="25" spans="1:8">
-      <x:c r="C25" s="0" t="s">
+      <x:c r="E25" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F25" s="0" t="s">
         <x:v>60</x:v>
       </x:c>
-      <x:c r="D25" s="0" t="s">
+      <x:c r="G25" s="0" t="s">
+        <x:v>60</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="26" spans="1:7">
+      <x:c r="C26" s="0" t="s">
         <x:v>61</x:v>
       </x:c>
-      <x:c r="E25" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="F25" s="0" t="s">
+      <x:c r="D26" s="0" t="s">
         <x:v>62</x:v>
       </x:c>
-      <x:c r="G25" s="0" t="s">
-        <x:v>62</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="26" spans="1:8">
-      <x:c r="C26" s="0" t="s">
-        <x:v>63</x:v>
-      </x:c>
-      <x:c r="D26" s="0" t="s">
-        <x:v>64</x:v>
-      </x:c>
       <x:c r="E26" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="F26" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="G26" s="0" t="s">
-        <x:v>32</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="27" spans="1:8">
+        <x:v>31</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27" spans="1:7">
       <x:c r="C27" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="D27" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="E27" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="F27" s="0" t="s">
         <x:v>12</x:v>
       </x:c>
       <x:c r="G27" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="28" spans="1:7">
+      <x:c r="C28" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D28" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="E28" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F28" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G28" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="29" spans="1:7">
+      <x:c r="C29" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="D29" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="E29" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F29" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="G29" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="30" spans="1:7">
+      <x:c r="C30" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="D30" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="E30" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F30" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="G30" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="31" spans="1:7">
+      <x:c r="C31" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D31" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E31" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="F31" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="G31" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="32" spans="1:7">
+      <x:c r="C32" s="0" t="s">
         <x:v>26</x:v>
       </x:c>
-    </x:row>
-    <x:row r="28" spans="1:8">
-      <x:c r="C28" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="D28" s="0" t="s">
+      <x:c r="D32" s="1" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="E32" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="F32" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="G32" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="33" spans="1:7">
+      <x:c r="C33" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="D33" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="E33" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F33" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="G33" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="34" spans="1:7">
+      <x:c r="C34" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="D34" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="E34" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F34" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="G34" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="35" spans="1:7">
+      <x:c r="C35" s="0" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="D35" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="E35" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F35" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="G35" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="36" spans="1:7">
+      <x:c r="C36" s="0" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="D36" s="0" t="s">
         <x:v>47</x:v>
       </x:c>
-      <x:c r="E28" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="F28" s="0" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="G28" s="0" t="s">
-        <x:v>32</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="29" spans="1:8">
-      <x:c r="C29" s="0" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="D29" s="0" t="s">
+      <x:c r="E36" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F36" s="0" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="G36" s="0" t="s">
+        <x:v>48</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="37" spans="1:7">
+      <x:c r="C37" s="0" t="s">
         <x:v>49</x:v>
       </x:c>
-      <x:c r="E29" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="F29" s="0" t="s">
+      <x:c r="D37" s="0" t="s">
         <x:v>50</x:v>
       </x:c>
-      <x:c r="G29" s="0" t="s">
-        <x:v>50</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="30" spans="1:8">
-      <x:c r="C30" s="0" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="D30" s="0" t="s">
+      <x:c r="E37" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F37" s="0" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="G37" s="0" t="s">
+        <x:v>51</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="38" spans="1:7">
+      <x:c r="C38" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="D38" s="0" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="E38" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F38" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="G38" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="39" spans="1:7">
+      <x:c r="C39" s="0" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="D39" s="0" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="E39" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F39" s="0" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="G39" s="0" t="s">
+        <x:v>57</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="40" spans="1:7">
+      <x:c r="C40" s="0" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="D40" s="0" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="E40" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F40" s="0" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="G40" s="0" t="s">
+        <x:v>60</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="41" spans="1:7">
+      <x:c r="C41" s="0" t="s">
         <x:v>61</x:v>
       </x:c>
-      <x:c r="E30" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="F30" s="0" t="s">
+      <x:c r="D41" s="0" t="s">
         <x:v>62</x:v>
       </x:c>
-      <x:c r="G30" s="0" t="s">
-        <x:v>62</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="31" spans="1:8">
-      <x:c r="F31" s="0" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="G31" s="0" t="s">
-        <x:v>65</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="32" spans="1:8">
-      <x:c r="F32" s="0" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="G32" s="0" t="s">
-        <x:v>66</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="33" spans="1:8">
-      <x:c r="F33" s="0" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="G33" s="0" t="s">
-        <x:v>67</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="34" spans="1:8">
-      <x:c r="B34" s="1" t="s">
-        <x:v>68</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="35" spans="1:8">
-      <x:c r="C35" s="0" t="s">
-        <x:v>69</x:v>
-      </x:c>
-      <x:c r="D35" s="1" t="s">
-        <x:v>70</x:v>
-      </x:c>
-      <x:c r="E35" s="0" t="s">
-        <x:v>71</x:v>
-      </x:c>
-      <x:c r="F35" s="0" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="G35" s="0" t="s">
-        <x:v>72</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="36" spans="1:8">
-      <x:c r="C36" s="0" t="s">
-        <x:v>73</x:v>
-      </x:c>
-      <x:c r="D36" s="0" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="E36" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="F36" s="0" t="s">
-        <x:v>75</x:v>
-      </x:c>
-      <x:c r="G36" s="0" t="s">
-        <x:v>75</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="37" spans="1:8">
-      <x:c r="F37" s="0" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="G37" s="0" t="s">
-        <x:v>76</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="38" spans="1:8">
-      <x:c r="F38" s="0" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="G38" s="0" t="s">
-        <x:v>77</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="39" spans="1:8">
-      <x:c r="F39" s="0" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="G39" s="0" t="s">
-        <x:v>78</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="40" spans="1:8">
-      <x:c r="B40" s="1" t="s">
-        <x:v>79</x:v>
+      <x:c r="E41" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F41" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="G41" s="0" t="s">
+        <x:v>31</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/UDACITY_Projects/Invoice Scraping Project/data_folder/MonicaGeller87654.xlsx
+++ b/UDACITY_Projects/Invoice Scraping Project/data_folder/MonicaGeller87654.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <x:si>
     <x:t>InvoiceNo #</x:t>
   </x:si>
@@ -33,6 +33,21 @@
   </x:si>
   <x:si>
     <x:t xml:space="preserve"> May 09, 2020</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ID</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DESCRIPTION</x:t>
+  </x:si>
+  <x:si>
+    <x:t>QTY</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PRICE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TOTAL</x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve">01 </x:t>
@@ -500,73 +515,82 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="E6" s="2" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <x:c r="A7" s="2" t="s">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="B7" s="2" t="s">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C7" s="2" t="s">
-        <x:v>11</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="D7" s="2" t="s">
-        <x:v>15</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="E7" s="2" t="s">
-        <x:v>15</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <x:c r="A8" s="2" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="B8" s="2" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C8" s="2" t="s">
         <x:v>16</x:v>
       </x:c>
-      <x:c r="B8" s="2" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="C8" s="2" t="s">
-        <x:v>11</x:v>
-      </x:c>
       <x:c r="D8" s="2" t="s">
-        <x:v>18</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="E8" s="2" t="s">
-        <x:v>18</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <x:c r="A9" s="2" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="B9" s="2" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="C9" s="2" t="s">
+        <x:v>16</x:v>
+      </x:c>
       <x:c r="D9" s="2" t="s">
-        <x:v>19</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="E9" s="2" t="s">
-        <x:v>20</x:v>
+        <x:v>23</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <x:c r="D10" s="2" t="s">
-        <x:v>21</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="E10" s="2" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <x:c r="D11" s="2" t="s">
-        <x:v>23</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="E11" s="2" t="s">
-        <x:v>24</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <x:c r="D12" s="2" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="E12" s="2" t="n">
-        <x:v>4644</x:v>
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="E12" s="2" t="s">
+        <x:v>29</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/UDACITY_Projects/Invoice Scraping Project/data_folder/MonicaGeller87654.xlsx
+++ b/UDACITY_Projects/Invoice Scraping Project/data_folder/MonicaGeller87654.xlsx
@@ -1,22 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<x:workbook xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <x:fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+<x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FLI028\Desktop\RPA_Udacity_projects\UDACITY_Projects\Invoice Scraping Project\data_folder\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0BF487B-7AF5-4F41-807A-7FD1B080337C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <x:bookViews>
-    <x:workbookView xWindow="52590" yWindow="2265" windowWidth="17280" windowHeight="9075" firstSheet="0" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <x:workbookView firstSheet="0" activeTab="0"/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+    <x:sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </x:sheets>
   <x:definedNames/>
-  <x:calcPr calcId="0"/>
+  <x:calcPr calcId="125725"/>
 </x:workbook>
 </file>
 
@@ -116,12 +109,13 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<x:styleSheet xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac x16r2 xr">
+<x:styleSheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:numFmts count="1">
     <x:numFmt numFmtId="0" formatCode=""/>
   </x:numFmts>
-  <x:fonts count="1" x14ac:knownFonts="1">
+  <x:fonts count="1">
     <x:font>
+      <x:vertAlign val="baseline"/>
       <x:sz val="11"/>
       <x:color rgb="FF000000"/>
       <x:name val="Calibri"/>
@@ -137,23 +131,30 @@
     </x:fill>
   </x:fills>
   <x:borders count="1">
-    <x:border>
-      <x:left/>
-      <x:right/>
-      <x:top/>
-      <x:bottom/>
-      <x:diagonal/>
+    <x:border diagonalUp="0" diagonalDown="0">
+      <x:left style="none">
+        <x:color rgb="FF000000"/>
+      </x:left>
+      <x:right style="none">
+        <x:color rgb="FF000000"/>
+      </x:right>
+      <x:top style="none">
+        <x:color rgb="FF000000"/>
+      </x:top>
+      <x:bottom style="none">
+        <x:color rgb="FF000000"/>
+      </x:bottom>
+      <x:diagonal style="none">
+        <x:color rgb="FF000000"/>
+      </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="2">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
+  <x:cellStyleXfs count="1">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="3">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+  <x:cellXfs count="1">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
@@ -162,19 +163,10 @@
   <x:cellStyles count="1">
     <x:cellStyle name="Normal" xfId="0" builtinId="0"/>
   </x:cellStyles>
-  <x:tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <x:extLst>
-    <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </x:ext>
-    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </x:ext>
-  </x:extLst>
 </x:styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
@@ -457,139 +449,139 @@
 </a:theme>
 </file>
 
-<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3">
+<file path=xl/worksheets/sheet.xml><?xml version="1.0" encoding="utf-8"?>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:E12"/>
+  <x:dimension ref="A1:A1"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" workbookViewId="0"/>
+    <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
-  <x:sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
-    <x:row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <x:c r="A1" s="2" t="s">
+    <x:row r="1" spans="1:5">
+      <x:c r="A1" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="B1" s="2" t="s">
+      <x:c r="B1" s="0" t="s">
         <x:v>1</x:v>
       </x:c>
     </x:row>
-    <x:row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <x:c r="A2" s="2" t="s">
+    <x:row r="2" spans="1:5">
+      <x:c r="A2" s="0" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="B2" s="2" t="s">
+      <x:c r="B2" s="0" t="s">
         <x:v>3</x:v>
       </x:c>
     </x:row>
-    <x:row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <x:c r="A5" s="2" t="s">
+    <x:row r="5" spans="1:5">
+      <x:c r="A5" s="0" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="B5" s="2" t="s">
+      <x:c r="B5" s="0" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="C5" s="2" t="s">
+      <x:c r="C5" s="0" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="D5" s="2" t="s">
+      <x:c r="D5" s="0" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="E5" s="2" t="s">
+      <x:c r="E5" s="0" t="s">
         <x:v>8</x:v>
       </x:c>
     </x:row>
-    <x:row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <x:c r="A6" s="2" t="s">
+    <x:row r="6" spans="1:5">
+      <x:c r="A6" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="B6" s="2" t="s">
+      <x:c r="B6" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="C6" s="2" t="s">
+      <x:c r="C6" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="D6" s="2" t="s">
+      <x:c r="D6" s="0" t="s">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="E6" s="2" t="s">
+      <x:c r="E6" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
     </x:row>
-    <x:row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <x:c r="A7" s="2" t="s">
+    <x:row r="7" spans="1:5">
+      <x:c r="A7" s="0" t="s">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="B7" s="2" t="s">
+      <x:c r="B7" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
-      <x:c r="C7" s="2" t="s">
+      <x:c r="C7" s="0" t="s">
         <x:v>16</x:v>
       </x:c>
-      <x:c r="D7" s="2" t="s">
+      <x:c r="D7" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
-      <x:c r="E7" s="2" t="s">
+      <x:c r="E7" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
     </x:row>
-    <x:row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <x:c r="A8" s="2" t="s">
+    <x:row r="8" spans="1:5">
+      <x:c r="A8" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="B8" s="2" t="s">
+      <x:c r="B8" s="0" t="s">
         <x:v>19</x:v>
       </x:c>
-      <x:c r="C8" s="2" t="s">
+      <x:c r="C8" s="0" t="s">
         <x:v>16</x:v>
       </x:c>
-      <x:c r="D8" s="2" t="s">
+      <x:c r="D8" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="E8" s="2" t="s">
+      <x:c r="E8" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
     </x:row>
-    <x:row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <x:c r="A9" s="2" t="s">
+    <x:row r="9" spans="1:5">
+      <x:c r="A9" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="B9" s="2" t="s">
+      <x:c r="B9" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
-      <x:c r="C9" s="2" t="s">
+      <x:c r="C9" s="0" t="s">
         <x:v>16</x:v>
       </x:c>
-      <x:c r="D9" s="2" t="s">
+      <x:c r="D9" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
-      <x:c r="E9" s="2" t="s">
+      <x:c r="E9" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
     </x:row>
-    <x:row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <x:c r="D10" s="2" t="s">
+    <x:row r="10" spans="1:5">
+      <x:c r="D10" s="0" t="s">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="E10" s="2" t="s">
+      <x:c r="E10" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
     </x:row>
-    <x:row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <x:c r="D11" s="2" t="s">
+    <x:row r="11" spans="1:5">
+      <x:c r="D11" s="0" t="s">
         <x:v>26</x:v>
       </x:c>
-      <x:c r="E11" s="2" t="s">
+      <x:c r="E11" s="0" t="s">
         <x:v>27</x:v>
       </x:c>
     </x:row>
-    <x:row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <x:c r="D12" s="2" t="s">
+    <x:row r="12" spans="1:5">
+      <x:c r="D12" s="0" t="s">
         <x:v>28</x:v>
       </x:c>
-      <x:c r="E12" s="2" t="s">
+      <x:c r="E12" s="0" t="s">
         <x:v>29</x:v>
       </x:c>
     </x:row>
